--- a/data/DMS실습(3)-ab테스트(정답).xlsx
+++ b/data/DMS실습(3)-ab테스트(정답).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="460" windowWidth="17300" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>MASTER</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>평균</t>
+  </si>
+  <si>
+    <t>양측검정</t>
+  </si>
+  <si>
+    <t>단측검정</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -765,9 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7185,9 +7189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView zoomScale="118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7207,6 +7209,9 @@
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="11">
@@ -7250,6 +7255,9 @@
       </c>
       <c r="C8" s="15">
         <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -7509,9 +7517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView zoomScale="179" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
